--- a/data/income_statement/2digits/size/22_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/22_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>22-Manufacture of rubber and plastic products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>22-Manufacture of rubber and plastic products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,857 +841,967 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5344274.22017</v>
+        <v>5322997.58438</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6558985.557770001</v>
+        <v>6615463.43812</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8613574.86579</v>
+        <v>8813754.843369998</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9806068.82691</v>
+        <v>10070545.51746</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11856205.14317</v>
+        <v>11968749.99185</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13648191.57199</v>
+        <v>14113204.57861</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15059981.93911</v>
+        <v>15675408.2861</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16359591.36241</v>
+        <v>16957835.71918</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>20885078.2429</v>
+        <v>20911076.46905</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>34016714.64852</v>
+        <v>33818528.46244</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>34499365.52223001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34554931.82695001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>43097686.464</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4408711.539980001</v>
+        <v>4365539.55841</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5473847.05138</v>
+        <v>5506081.42001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7296009.01685</v>
+        <v>7432032.752520001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8347262.77989</v>
+        <v>8521155.9966</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9698193.829290001</v>
+        <v>9698445.94447</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11428833.38346</v>
+        <v>11756276.025</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12836391.88816</v>
+        <v>13266440.14007</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14004731.18703</v>
+        <v>14451442.52275</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>17907808.20633</v>
+        <v>17781630.95498</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26927262.05891</v>
+        <v>26679326.29659</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>26894920.81618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26881998.40093</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>33574648.651</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>878292.6260599999</v>
+        <v>897424.68115</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1020191.97476</v>
+        <v>1048646.11331</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1235790.89174</v>
+        <v>1299686.65289</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1362718.42501</v>
+        <v>1452994.36387</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2040808.63999</v>
+        <v>2156652.26584</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2075899.64647</v>
+        <v>2217684.39714</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2090674.67715</v>
+        <v>2271600.59438</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2175008.15243</v>
+        <v>2323608.59188</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2737156.51902</v>
+        <v>2901250.32841</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6703470.569159999</v>
+        <v>6771588.860450001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7093260.08534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7170193.670390001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8986001.548</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>57270.05413</v>
+        <v>60033.34482</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>64946.53163</v>
+        <v>60735.9048</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>81774.9572</v>
+        <v>82035.43796000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>96087.62200999999</v>
+        <v>96395.15699</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>117202.67389</v>
+        <v>113651.78154</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>143458.54206</v>
+        <v>139244.15647</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>132915.3738</v>
+        <v>137367.55165</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>179852.02295</v>
+        <v>182784.60455</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>240113.51755</v>
+        <v>228195.18566</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>385982.0204500001</v>
+        <v>367613.3054</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>511184.62071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>502739.75563</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>537036.265</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>188222.04572</v>
+        <v>190359.80114</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>226977.28562</v>
+        <v>236127.05724</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>239720.04657</v>
+        <v>249545.28045</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>249555.06783</v>
+        <v>260460.51096</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>302185.71668</v>
+        <v>317074.60503</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>290770.69755</v>
+        <v>306720.6337</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>337506.74692</v>
+        <v>342059.27504</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>345567.70586</v>
+        <v>400444.6880499999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>396327.8676699999</v>
+        <v>410668.1884500001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1405311.52604</v>
+        <v>1400573.89562</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>806944.2817000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>815231.9589499999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>982835.422</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>56707.09919</v>
+        <v>55564.52839</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>64772.92041000001</v>
+        <v>65520.29435</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>86072.69003</v>
+        <v>88345.23629</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>91984.04050999999</v>
+        <v>94335.36116999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>98921.89342000001</v>
+        <v>98260.76258</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>125221.10118</v>
+        <v>132800.00378</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>146763.48295</v>
+        <v>152486.16384</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>182510.01557</v>
+        <v>187678.87956</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>215432.66841</v>
+        <v>226031.66387</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>835145.12555</v>
+        <v>835533.5543199999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>388136.35961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>397939.96803</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>506724.633</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>117295.03459</v>
+        <v>119923.75831</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>147512.21774</v>
+        <v>155672.20837</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>140815.12873</v>
+        <v>146557.71731</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>142559.45153</v>
+        <v>148157.99614</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>178548.96535</v>
+        <v>192372.77046</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>141339.79878</v>
+        <v>148067.67697</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>151532.3938</v>
+        <v>148923.63282</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>126981.34825</v>
+        <v>174005.84114</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>145847.9705</v>
+        <v>144783.55368</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>464803.74643</v>
+        <v>452226.17966</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>331535.96802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>328911.17513</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>378477.384</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>14219.91194</v>
+        <v>14871.51444</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>14692.14747</v>
+        <v>14934.55452</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>12832.22781</v>
+        <v>14642.32685</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>15011.57579</v>
+        <v>17967.15365</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>24714.85791</v>
+        <v>26441.07199</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>24209.79759</v>
+        <v>25852.95295</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>39210.87017</v>
+        <v>40649.47837999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>36076.34204</v>
+        <v>38759.96735</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>35047.22876</v>
+        <v>39852.97090000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>105362.65406</v>
+        <v>112814.16164</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>87271.95407000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>88380.81578999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>97633.405</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5156052.17445</v>
+        <v>5132637.78324</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6332008.27215</v>
+        <v>6379336.38088</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8373854.819219999</v>
+        <v>8564209.56292</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9556513.75908</v>
+        <v>9810085.0065</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11554019.42649</v>
+        <v>11651675.38682</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>13357420.87444</v>
+        <v>13806483.94491</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14722475.19219</v>
+        <v>15333349.01106</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16014023.65655</v>
+        <v>16557391.03113</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>20488750.37523</v>
+        <v>20500408.2806</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>32611403.12248001</v>
+        <v>32417954.56682</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>33692421.24053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>33739699.868</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>42114851.042</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4239348.60011</v>
+        <v>4214762.4067</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5343951.0743</v>
+        <v>5378067.24138</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7063037.42655</v>
+        <v>7214934.39362</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8120455.00471</v>
+        <v>8316646.64335</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9701437.55301</v>
+        <v>9776953.98137</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11232450.46133</v>
+        <v>11598019.79199</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12364264.85634</v>
+        <v>12852721.33749</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13500209.85064</v>
+        <v>13945471.48444</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>17259258.81731</v>
+        <v>17243769.81217</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>26716675.44458</v>
+        <v>26501509.45996</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>27753972.0179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>27704978.13654</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>34278480.972</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3654627.66027</v>
+        <v>3648369.90618</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4583028.912700001</v>
+        <v>4617913.21802</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6047417.93842</v>
+        <v>6195235.52278</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6925503.588129999</v>
+        <v>7161401.313270001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8336147.68475</v>
+        <v>8449621.25891</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9610350.590619998</v>
+        <v>9950468.751399999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>10621438.82273</v>
+        <v>11070515.61355</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11333801.7712</v>
+        <v>11739672.11168</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>14265171.9454</v>
+        <v>14360728.09762</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>22846624.29354</v>
+        <v>22735215.82248</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>24209250.64066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24239042.6233</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>29168604.643</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>484525.99737</v>
+        <v>469827.37478</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>630546.3936600001</v>
+        <v>630257.8659099999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>876716.1310599999</v>
+        <v>881640.2705</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1092151.60441</v>
+        <v>1058401.35027</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1218294.48772</v>
+        <v>1192647.81096</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1427553.55981</v>
+        <v>1452620.9452</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1555874.78665</v>
+        <v>1597557.87886</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1961909.91688</v>
+        <v>1977749.2239</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2624834.60014</v>
+        <v>2526774.72129</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3431994.17506</v>
+        <v>3350516.96911</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3142730.75547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3073851.06873</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4710194.42</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>57329.48405</v>
+        <v>54528.01901999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>94796.80189</v>
+        <v>91761.41482000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>94922.68739000001</v>
+        <v>91557.45997</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>82679.31362999999</v>
+        <v>77227.92712000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>107923.97551</v>
+        <v>93965.69042</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>153033.69311</v>
+        <v>144426.98834</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>142487.62137</v>
+        <v>132603.55025</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>152460.85545</v>
+        <v>171988.27403</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>289354.57981</v>
+        <v>278158.60665</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>304775.0700299999</v>
+        <v>288534.51611</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>223473.88653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>208505.32241</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>251570.194</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>42865.45842</v>
+        <v>42037.10672</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>35578.96605</v>
+        <v>38134.74263</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>43980.66968</v>
+        <v>46501.14037000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>20120.49854</v>
+        <v>19616.05269</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>39071.40503</v>
+        <v>40719.22108</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>41512.61779</v>
+        <v>50503.10705</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>44463.62559</v>
+        <v>52044.29483</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>52037.30711</v>
+        <v>56061.87483</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>79897.69196</v>
+        <v>78108.38661</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>133281.90595</v>
+        <v>127242.15226</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>178516.73524</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>183579.1221</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>148111.715</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>916703.5743399999</v>
+        <v>917875.37654</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>988057.1978499999</v>
+        <v>1001269.1395</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1310817.39267</v>
+        <v>1349275.1693</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1436058.75437</v>
+        <v>1493438.36315</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1852581.87348</v>
+        <v>1874721.40545</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2124970.41311</v>
+        <v>2208464.15292</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2358210.33585</v>
+        <v>2480627.67357</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2513813.80591</v>
+        <v>2611919.54669</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3229491.55792</v>
+        <v>3256638.46843</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5894727.6779</v>
+        <v>5916445.10686</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5938449.222629999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6034721.731459999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7836370.07</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>539632.38789</v>
+        <v>531810.76569</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>629662.89319</v>
+        <v>630978.52309</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>764254.3022799999</v>
+        <v>772304.35726</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>866535.9243200001</v>
+        <v>886545.64751</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1069875.2468</v>
+        <v>1067415.2561</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1191657.04625</v>
+        <v>1263088.03634</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1305191.78947</v>
+        <v>1356864.35915</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1413035.9726</v>
+        <v>1453961.76043</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1699104.36645</v>
+        <v>1676354.9779</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2683204.43524</v>
+        <v>2683722.70777</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3009959.55066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3008771.75021</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3318952.493</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>4522.485390000001</v>
+        <v>4783.44709</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3635.32818</v>
+        <v>3636.2839</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2737.43129</v>
+        <v>2901.31584</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5429.48042</v>
+        <v>5920.0698</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8060.1618</v>
+        <v>8691.641180000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8462.61076</v>
+        <v>7826.37743</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8424.310079999999</v>
+        <v>9334.876030000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7048.38674</v>
+        <v>8286.76946</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>11355.77136</v>
+        <v>11483.42063</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>22988.06368</v>
+        <v>23154.3614</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>39409.50571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>38104.49623</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>24473.696</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>219228.10051</v>
+        <v>219056.9967</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>260337.8921</v>
+        <v>264088.95468</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>307347.46217</v>
+        <v>318210.99969</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>342625.22246</v>
+        <v>365389.9785</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>447772.26131</v>
+        <v>454515.76049</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>494521.57113</v>
+        <v>518588.65962</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>543925.13728</v>
+        <v>568384.83925</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>544297.2472699999</v>
+        <v>569616.8668199999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>654264.34275</v>
+        <v>660646.52229</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1235321.34016</v>
+        <v>1246558.79687</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1320442.1387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1328832.88389</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1487638.007</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>315881.80199</v>
+        <v>307970.3219</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>365689.67291</v>
+        <v>363253.28451</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>454169.40882</v>
+        <v>451192.04173</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>518481.22144</v>
+        <v>515235.59921</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>614042.82369</v>
+        <v>604207.8544300001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>688672.8643599999</v>
+        <v>736672.9992900001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>752842.34211</v>
+        <v>779144.64387</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>861690.3385900001</v>
+        <v>876058.1241499999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1033484.25234</v>
+        <v>1004225.03498</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1424895.0314</v>
+        <v>1414009.5495</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1650107.90625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1641834.37009</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1806840.79</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>377071.18645</v>
+        <v>386064.61085</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>358394.30466</v>
+        <v>370290.61641</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>546563.09039</v>
+        <v>576970.81204</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>569522.83005</v>
+        <v>606892.71564</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>782706.62668</v>
+        <v>807306.1493500001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>933313.3668600001</v>
+        <v>945376.11658</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1053018.54638</v>
+        <v>1123763.31442</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1100777.83331</v>
+        <v>1157957.78626</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1530387.19147</v>
+        <v>1580283.49053</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3211523.24266</v>
+        <v>3232722.399089999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2928489.67197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3025949.98125</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4517417.577</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>167952.07205</v>
+        <v>176855.96556</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>157144.36575</v>
+        <v>167026.29651</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>188612.47996</v>
+        <v>193028.82155</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>164377.324</v>
+        <v>180343.87839</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>271800.11293</v>
+        <v>292225.24755</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>323937.98455</v>
+        <v>368497.10546</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>463652.39822</v>
+        <v>521873.36659</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>398964.52008</v>
+        <v>466670.10265</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>480241.48628</v>
+        <v>511259.04178</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2898610.42467</v>
+        <v>2901020.01996</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1489502.49585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1411525.55038</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2169854.136</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>196.92825</v>
+        <v>399.99193</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>300.91064</v>
+        <v>116.19147</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1036.31262</v>
+        <v>400</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>295.1109</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2039.45524</v>
+        <v>306.40423</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2812.63674</v>
+        <v>440.9218</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2781.67914</v>
+        <v>1199.04123</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4282.60062</v>
+        <v>718.71118</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>9069.4879</v>
@@ -1801,38 +1812,43 @@
       <c r="M26" s="48" t="n">
         <v>13202.83943</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>10552.469</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.25</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>51.24631</v>
+        <v>51.49631</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0.25</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>845.2447</v>
+        <v>77.88368</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>918.71266</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>837.04876</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2106.8727</v>
+        <v>198.79058</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4921.246990000001</v>
+        <v>166.21521</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4107.57326</v>
+        <v>24.95891</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,248 +1856,283 @@
       <c r="M27" s="48" t="n">
         <v>1986.97397</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>19935.8372</v>
+        <v>17915.28602</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>12756.08859</v>
+        <v>12186.13534</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>14607.3374</v>
+        <v>12879.24949</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>18342.13861</v>
+        <v>20433.55027</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>22653.56304</v>
+        <v>22541.31248</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>30995.03694</v>
+        <v>32583.64118</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>29062.66073</v>
+        <v>28569.2981</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>24039.37871</v>
+        <v>27130.61335</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>38180.77525</v>
+        <v>36963.25212</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>130971.01631</v>
+        <v>133436.35434</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>113950.57398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>118298.20858</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>115157.197</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>910.0500999999999</v>
+        <v>920.5983100000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>297.2584000000001</v>
+        <v>296.31366</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>293.98299</v>
+        <v>222.79242</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>95.16345999999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1975.98582</v>
+        <v>1451.25204</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1240.29323</v>
+        <v>781.4258199999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1621.46157</v>
+        <v>590.7080100000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1465.71399</v>
+        <v>1797.46465</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1080.38233</v>
+        <v>1083.30637</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>30759.74527</v>
+        <v>30758.74527</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3283.2175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3282.17426</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>395.179</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4166.59909</v>
+        <v>3871.85035</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>6887.637060000001</v>
+        <v>6458.31535</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2353.03542</v>
+        <v>2432.60377</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2677.25645</v>
+        <v>2798.98613</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7076.184490000001</v>
+        <v>7186.85422</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>15012.75162</v>
+        <v>15489.67154</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>8322.92066</v>
+        <v>11685.21268</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5685.71771</v>
+        <v>6167.710129999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>6110.942430000001</v>
+        <v>7974.988020000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>13077.46199</v>
+        <v>13360.36862</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>37908.15098000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>36218.84632</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>27334.58</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>925.3184699999999</v>
+        <v>950.90417</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1329.7166</v>
+        <v>1315.9743</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1307.66678</v>
+        <v>1343.84154</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1301.21251</v>
+        <v>1163.30488</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>716.37129</v>
+        <v>609.7051399999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3106.64133</v>
+        <v>2919.07311</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1870.46706</v>
+        <v>1974.09706</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3277.59187</v>
+        <v>1347.52335</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2010.86656</v>
+        <v>2031.07121</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>22982.36655</v>
+        <v>22978.05975</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4579.77115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4474.92395</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>33464.153</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>109251.94965</v>
+        <v>122560.46226</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>107547.45122</v>
+        <v>121682.29367</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>137863.77347</v>
+        <v>147052.10062</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>110571.21524</v>
+        <v>125041.12647</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>194301.67367</v>
+        <v>216906.04232</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>228941.15895</v>
+        <v>264166.12718</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>374770.90994</v>
+        <v>427363.86738</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>309745.51669</v>
+        <v>381624.9556400001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>364362.8649099999</v>
+        <v>401054.0294</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2459062.9827</v>
+        <v>2473028.13247</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1129977.28649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1082485.4198</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1826689.717</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>495.54159</v>
+        <v>479.11899</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>521.4472000000001</v>
+        <v>290.04138</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>474.5935</v>
+        <v>437.1935</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>80.91345</v>
+        <v>226.9423</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1913.95962</v>
+        <v>2816.95741</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1984.97706</v>
+        <v>2836.57083</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5763.475199999999</v>
+        <v>6667.070699999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>3133.07917</v>
+        <v>4723.24133</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>3283.39014</v>
+        <v>3443.04385</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>6991.94221</v>
+        <v>6983.68612</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>25502.67707</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>19654.602</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>93.52354</v>
+        <v>125.83568</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>15.99458</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>16.39914</v>
+        <v>16.22491</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>89.77743</v>
@@ -2113,272 +2164,307 @@
       <c r="M34" s="48" t="n">
         <v>30.87769</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>31976.07416</v>
+        <v>29631.66785</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>27436.61515</v>
+        <v>24613.54045</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>30618.97871</v>
+        <v>28204.24114</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>30159.31741</v>
+        <v>30202.05903</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>40204.2071</v>
+        <v>40406.71971</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>38991.04078</v>
+        <v>48426.40033</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>37262.17379</v>
+        <v>43535.50342</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>41953.17887</v>
+        <v>42533.17234999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>52035.2035</v>
+        <v>49614.904</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>195816.92394</v>
+        <v>181526.68769</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>159080.12759</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>126042.60931</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>135206.239</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>151953.13854</v>
+        <v>158337.3171</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>125504.23546</v>
+        <v>137343.10283</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>225611.98775</v>
+        <v>247331.64909</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>128057.94272</v>
+        <v>139661.11324</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>374888.34649</v>
+        <v>418033.00338</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>329478.75986</v>
+        <v>365323.51709</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>536754.29867</v>
+        <v>641209.84954</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>453200.6145</v>
+        <v>546346.90575</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>527593.75243</v>
+        <v>585918.56881</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3259073.10843</v>
+        <v>3292404.12674</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1415681.41739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1362853.95937</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1954710.213</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1389.4181</v>
+        <v>1295.41603</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2628.18731</v>
+        <v>2182.33483</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1803.29425</v>
+        <v>1829.69194</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3212.96008</v>
+        <v>3146.88458</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10195.15485</v>
+        <v>10549.37927</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>11621.36353</v>
+        <v>11648.22675</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>11590.23863</v>
+        <v>12215.694</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7785.773230000001</v>
+        <v>7958.76516</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11782.46265</v>
+        <v>12288.94889</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>15844.70419</v>
+        <v>15718.23412</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>18993.7742</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>18440.00482</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>23937.793</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>32154.80506</v>
+        <v>28778.85839</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>15957.35332</v>
+        <v>16628.08608</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>11686.8482</v>
+        <v>11602.76727</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>19646.08899</v>
+        <v>25346.14185</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>33682.34727000001</v>
+        <v>34686.67358</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>28946.62827</v>
+        <v>31848.97315</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30755.91979</v>
+        <v>33506.55404</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>36427.32872</v>
+        <v>33521.86749</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>32440.11367</v>
+        <v>35613.15491</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>123956.54278</v>
+        <v>129858.68448</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>105211.2029</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>108137.66142</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>66327.53200000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>526.02963</v>
+        <v>524.63433</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>38.14926000000001</v>
+        <v>2876.41449</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>180.36439</v>
+        <v>174.76299</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>303.04623</v>
+        <v>89.91947</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>140.60187</v>
+        <v>1292.6861</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>299.11557</v>
+        <v>298.74108</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>535.38747</v>
+        <v>663.31749</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1051.46601</v>
+        <v>2.96078</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>670.7783499999999</v>
+        <v>670.75815</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>63797.73452999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>3874.70599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1766.0897</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>416.214</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>103982.32627</v>
+        <v>117029.19606</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>94594.34692</v>
+        <v>106577.0796</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>198396.65434</v>
+        <v>224921.82117</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>92299.27514</v>
+        <v>100524.32231</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>311292.57808</v>
+        <v>351595.3921</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>268621.34176</v>
+        <v>304729.08769</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>475043.93217</v>
+        <v>573132.66304</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>389420.13295</v>
+        <v>480704.00629</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>454439.4635499999</v>
+        <v>507536.33336</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2973802.7263</v>
+        <v>3000953.63921</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1217578.88201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1168534.88777</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1793558.024</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>464.50929</v>
+        <v>670.2489499999999</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>405.31305</v>
+        <v>298.81942</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>322.81722</v>
+        <v>369.05177</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>311.70789</v>
+        <v>399.93436</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2611.42644</v>
+        <v>3474.76949</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2946.67363</v>
+        <v>3192.93006</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>5581.886</v>
+        <v>6288.42806</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>3202.99946</v>
+        <v>4847.270600000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>3540.61067</v>
+        <v>3801.90448</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>13438.78998</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>32716.61175</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>29415.171</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>65.00257999999999</v>
@@ -2405,10 +2496,10 @@
         <v>4.01403</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>538.4056400000001</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>81.58481</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>12.87128</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>13371.04761</v>
+        <v>9973.960760000002</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>11880.79822</v>
+        <v>8780.28103</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>13221.98108</v>
+        <v>8433.525679999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>12280.85036</v>
+        <v>10149.89664</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>16427.83234</v>
+        <v>16434.10284</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16962.05229</v>
+        <v>13605.55836</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13234.06333</v>
+        <v>15390.32163</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>15312.91413</v>
+        <v>19312.03543</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>24197.00653</v>
+        <v>25484.15201</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>68069.01065</v>
+        <v>68473.44442</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>37306.24054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>33258.70391</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41055.479</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>182647.03607</v>
+        <v>174766.89245</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>144503.57858</v>
+        <v>142922.19196</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>206990.74122</v>
+        <v>211586.74742</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>231133.89471</v>
+        <v>239566.75244</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>282840.9682</v>
+        <v>291506.4742</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>328394.97494</v>
+        <v>355817.1251600001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>408345.36068</v>
+        <v>464224.0488399999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>445013.01101</v>
+        <v>474948.47049</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>529578.02389</v>
+        <v>537226.56032</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1211690.75743</v>
+        <v>1304093.97316</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1096064.03731</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1162722.12145</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1052323.375</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>162265.23643</v>
+        <v>154794.56176</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>131394.43815</v>
+        <v>128510.42947</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>191974.93632</v>
+        <v>191462.36805</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>218779.31634</v>
+        <v>227097.63916</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>259852.16215</v>
+        <v>271041.0151</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>309018.46889</v>
+        <v>338489.90306</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>391138.33752</v>
+        <v>437170.3531599999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>419520.2142999999</v>
+        <v>440568.6137999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>494388.64052</v>
+        <v>499890.73028</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1102826.17345</v>
+        <v>1157859.46045</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1018260.95499</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1082712.86532</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>961877.027</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>20381.79964</v>
+        <v>19972.33069</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>13109.14043</v>
+        <v>14411.76249</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>15015.8049</v>
+        <v>20124.37937</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>12354.57837</v>
+        <v>12469.11328</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>22988.80605</v>
+        <v>20465.4591</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>19376.50605</v>
+        <v>17327.2221</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>17207.02316</v>
+        <v>27053.69568</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>25492.79671</v>
+        <v>34379.85669000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>35189.38337</v>
+        <v>37335.83004</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>108864.58398</v>
+        <v>146234.51271</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>77803.08231999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>80009.25613000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>90446.348</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>210423.08389</v>
+        <v>229816.36686</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>245530.85637</v>
+        <v>257051.61813</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>302572.84138</v>
+        <v>311081.23708</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>374708.31662</v>
+        <v>408008.72835</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>396777.42492</v>
+        <v>389991.91932</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>599377.61661</v>
+        <v>592732.57979</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>571571.28525</v>
+        <v>540202.78263</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>601528.72788</v>
+        <v>603332.5126700001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>953456.90143</v>
+        <v>968397.40318</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1639369.80147</v>
+        <v>1537244.31915</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1906246.71312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1911899.45081</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3680238.125</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>44906.27979</v>
+        <v>42055.62841999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>43968.9031</v>
+        <v>49937.94630999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>59887.85569</v>
+        <v>55800.82004</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>69762.02653</v>
+        <v>64866.00522</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>93642.95660999999</v>
+        <v>88187.65728999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>137290.05583</v>
+        <v>136367.88674</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>131560.34565</v>
+        <v>131919.69673</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>130834.41087</v>
+        <v>144942.97775</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>143820.12497</v>
+        <v>137113.24461</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>215101.49388</v>
+        <v>216230.96738</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>360743.4268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>322084.00861</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>329197.54</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1520.12107</v>
+        <v>1801.08211</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>898.0479300000001</v>
+        <v>880.69379</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1086.0928</v>
+        <v>439.57765</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>774.7304</v>
+        <v>1386.4661</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2520.08504</v>
+        <v>2596.61902</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1031.76472</v>
+        <v>984.5020400000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>636.03905</v>
+        <v>6339.63267</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>992.42323</v>
+        <v>1114.86738</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2464.04735</v>
+        <v>3377.07789</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3144.01427</v>
+        <v>3346.6517</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3023.50687</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2500.63104</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3430.514</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>43386.15872</v>
+        <v>40254.54631000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>43070.85517</v>
+        <v>49057.25252</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>58801.76289</v>
+        <v>55361.24239</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>68987.29613</v>
+        <v>63479.53911999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>91122.87157</v>
+        <v>85591.03827</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>136258.29111</v>
+        <v>135383.3847</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>130924.3066</v>
+        <v>125580.06406</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>129841.98764</v>
+        <v>143828.11037</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>141356.07762</v>
+        <v>133736.16672</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>211957.47961</v>
+        <v>212884.31568</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>357719.91993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>319583.3775700001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>325767.026</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>75551.50590999999</v>
+        <v>60980.67356</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>55199.64496</v>
+        <v>60896.1157</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>213767.47578</v>
+        <v>198203.04864</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>56475.9467</v>
+        <v>51685.29633</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>60679.96463</v>
+        <v>57805.1188</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>134892.80254</v>
+        <v>123656.23336</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>80769.38481</v>
+        <v>92463.80247999998</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>197404.21999</v>
+        <v>192636.58014</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>101396.18378</v>
+        <v>102189.4449</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>265808.24306</v>
+        <v>266679.85982</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>206291.08065</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>237863.75912</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>202472.07</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8465.84043</v>
+        <v>6917.76707</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>7984.5315</v>
+        <v>7399.246599999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6463.33564</v>
+        <v>8103.149280000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>8399.735939999999</v>
+        <v>6969.379690000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>12723.92273</v>
+        <v>10758.50487</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>11396.259</v>
+        <v>7405.49233</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9132.837310000001</v>
+        <v>12150.10295</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>13597.88897</v>
+        <v>14368.14081</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>7607.7762</v>
+        <v>8305.669689999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>20904.23667</v>
+        <v>32809.28141</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>26884.92765</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>52209.14422</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>29762.047</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5978.79808</v>
+        <v>4638.12306</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3750.37615</v>
+        <v>3561.68815</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1996.27665</v>
+        <v>3227.30457</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2616.79416</v>
+        <v>2468.08051</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2967.15459</v>
+        <v>2968.17142</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2373.85413</v>
+        <v>3838.60846</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4126.32797</v>
+        <v>4505.129300000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5315.782689999999</v>
+        <v>6001.49541</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3316.78242</v>
+        <v>3754.48157</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9078.304530000001</v>
+        <v>8827.021640000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>12509.49791</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8157.237690000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>16209.011</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>61106.8674</v>
+        <v>49424.78343000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>43464.73731</v>
+        <v>49935.18095</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>205307.86349</v>
+        <v>186872.59479</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>45459.4166</v>
+        <v>42247.83613</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>44988.88731000001</v>
+        <v>44078.44251000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>121122.68941</v>
+        <v>112412.13257</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>67510.21953</v>
+        <v>75808.57023</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>178490.54833</v>
+        <v>172266.94392</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>90471.62516</v>
+        <v>90129.29364</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>235825.70186</v>
+        <v>225043.55677</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>166896.65509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>177497.37721</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>156501.012</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>179777.85777</v>
+        <v>210891.32172</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>234300.11451</v>
+        <v>246093.44874</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>148693.22129</v>
+        <v>168679.00848</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>387994.39645</v>
+        <v>421189.43724</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>429740.4169</v>
+        <v>420374.4578100001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>601774.8698999999</v>
+        <v>605444.23317</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>622362.2460899999</v>
+        <v>579658.67688</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>534958.91876</v>
+        <v>555638.91028</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>995880.84262</v>
+        <v>1003321.20289</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1588663.05229</v>
+        <v>1486795.42671</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2060699.05927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1996119.7003</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3806963.595</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>51402.93436</v>
+        <v>51008.30214</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>49099.54105</v>
+        <v>49929.46891</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>70530.32021999999</v>
+        <v>71927.54324000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>82435.45626000001</v>
+        <v>87023.10672999998</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>95616.64450999998</v>
+        <v>94889.58391999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>119861.2164</v>
+        <v>123707.87676</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>135789.94356</v>
+        <v>142114.43991</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>134980.26701</v>
+        <v>142006.21345</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>192272.22053</v>
+        <v>195127.16146</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>370597.55443</v>
+        <v>359648.97756</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>382778.38656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>385085.56934</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>700022.2560000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>128374.92341</v>
+        <v>159883.01958</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>185200.57346</v>
+        <v>196163.97983</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>78162.90106999999</v>
+        <v>96751.46524</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>305558.94019</v>
+        <v>334166.33051</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>334123.77239</v>
+        <v>325484.87389</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>481913.6535</v>
+        <v>481736.3564099999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>486572.30253</v>
+        <v>437544.23697</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>399978.65175</v>
+        <v>413632.69683</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>803608.62209</v>
+        <v>808194.0414300001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1218065.49786</v>
+        <v>1127146.44915</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1677920.67271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1611034.13096</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3106941.339</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>647</v>
+        <v>535</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>776</v>
+        <v>658</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>893</v>
+        <v>757</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>748</v>
+        <v>649</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>851</v>
+        <v>737</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>974</v>
+        <v>838</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1063</v>
+        <v>860</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1207</v>
+        <v>966</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>752</v>
+        <v>689</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>664</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>